--- a/data/insurance.xlsx
+++ b/data/insurance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13900" yWindow="11760" windowWidth="25520" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="2540" yWindow="10340" windowWidth="25520" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,21 +133,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -155,128 +149,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +451,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,210 +463,210 @@
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2014</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2015</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2014</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>2015</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>2014</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>2015</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>2014</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="2">
         <v>2015</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>46067</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>44286</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>16598</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>16009</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>36049</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>34625</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>9145</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="3">
         <v>7713</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>57834</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>57146</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>35436</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>34739</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>32721</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>33188</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>9477</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="3">
         <v>8143</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>49707</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>49813</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>39295</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>38802</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>18297</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>19074</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>5957</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="3">
         <v>5318</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>37999</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>39972</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>32771</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>34349</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>10471</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>11737</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>3296</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="3">
         <v>3150</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>91593</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>98686</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>84499</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>90339</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>17932</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>19770</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>5094</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="3">
         <v>4642</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -781,10 +674,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5">
@@ -808,12 +701,12 @@
       <c r="H10" s="5">
         <v>24759</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="5">
         <v>21454</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="5">
@@ -837,12 +730,12 @@
       <c r="H11" s="5">
         <v>14824</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="5">
         <v>13100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5">
@@ -866,12 +759,12 @@
       <c r="H12" s="5">
         <v>4847</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="5">
         <v>4627</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="5">
@@ -895,36 +788,36 @@
       <c r="H13" s="5">
         <v>1659</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="5">
         <v>1360</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="5">
         <v>44556</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="5">
         <v>47637</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="5">
         <v>27061</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="5">
         <v>29352</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="5">
         <v>21977</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="5">
         <v>23447</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="5">
         <v>11059</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="5">
         <v>9235</v>
       </c>
     </row>
